--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -50,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,14 +79,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -132,16 +133,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F20:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -463,208 +462,249 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43239</v>
+        <v>43581</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>4870</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>5800</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>2311</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>2810</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43253</v>
+        <v>43602</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5120</v>
+        <v>5950</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E4" s="6">
-        <v>4.29</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>1072.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>685.5</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>805</v>
+      </c>
+      <c r="H4" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2461</v>
+        <v>2860</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>325.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119.5</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43281</v>
+        <v>43657</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>5300</v>
+        <v>6100</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E6" s="6">
-        <v>4.29</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
-        <v>772.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>673.5</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>795</v>
+      </c>
+      <c r="H6" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2552</v>
+        <v>2910</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E7" s="6">
-        <v>2.17</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>197.47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43407</v>
+        <v>43732</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>5660</v>
+        <v>6250</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="E8" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>673.5</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>795</v>
+      </c>
+      <c r="H8" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2752</v>
+        <v>2960</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E9" s="6">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>470</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43581</v>
+        <v>43749</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>5800</v>
+        <v>6300</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ref="D10:D17" si="2">C10-C8</f>
-        <v>140</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.57</v>
+        <v>50</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>639.80000000000007</v>
+        <f t="shared" ref="F10:F17" si="3">D10*E10</f>
+        <v>224.5</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>589</v>
+      </c>
+      <c r="H10" s="8">
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -673,40 +713,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>2810</v>
+        <v>3110</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2.39</v>
+        <v>150</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>138.62</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>364.5</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43602</v>
+        <v>43843</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>5950</v>
+        <v>6450</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="E12" s="9">
-        <v>4.57</v>
+      <c r="E12" s="6">
+        <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12:F17" si="3">D12*E12</f>
-        <v>685.5</v>
+        <f t="shared" si="3"/>
+        <v>673.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>795</v>
+      </c>
+      <c r="H12" s="8">
+        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -715,219 +764,197 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>2860</v>
+        <v>3160</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E13" s="9">
-        <v>2.39</v>
+      <c r="E13" s="6">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="3"/>
-        <v>119.5</v>
-      </c>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43657</v>
+      <c r="A14" s="9">
+        <v>43901</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>6100</v>
+        <v>6550</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="E14" s="9">
+        <v>100</v>
+      </c>
+      <c r="E14" s="6">
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="3"/>
-        <v>673.5</v>
+        <v>449</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>692</v>
+      </c>
+      <c r="H14" s="8">
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>2910</v>
+        <v>3260</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E15" s="9">
+        <v>100</v>
+      </c>
+      <c r="E15" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="3"/>
-        <v>121.50000000000001</v>
-      </c>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43732</v>
+      <c r="A16" s="9">
+        <v>43901</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>6250</v>
+        <v>6700</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>4.49</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="3"/>
         <v>673.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>795</v>
+      </c>
+      <c r="H16" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>2960</v>
+        <v>3310</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="3"/>
         <v>121.50000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43749</v>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>43920</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>6300</v>
+        <v>6850</v>
       </c>
       <c r="D18" s="3">
-        <f>C18-C16</f>
-        <v>50</v>
-      </c>
-      <c r="E18" s="9">
+        <f t="shared" ref="D18:D19" si="4">C18-C16</f>
+        <v>150</v>
+      </c>
+      <c r="E18" s="6">
         <v>4.49</v>
       </c>
       <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>224.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+        <f t="shared" ref="F18:F19" si="5">D18*E18</f>
+        <v>673.5</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>795</v>
+      </c>
+      <c r="H18" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>3110</v>
+        <v>3360</v>
       </c>
       <c r="D19" s="3">
-        <f>C19-C17</f>
-        <v>150</v>
-      </c>
-      <c r="E19" s="9">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="6">
-        <f>D19*E19</f>
-        <v>364.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43843</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6450</v>
-      </c>
-      <c r="D20" s="3">
-        <f>C20-C18</f>
-        <v>150</v>
-      </c>
-      <c r="E20" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="6">
-        <f>D20*E20</f>
-        <v>673.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3160</v>
-      </c>
-      <c r="D21" s="3">
-        <f>C21-C19</f>
-        <v>50</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F21" s="6">
-        <f>D21*E21</f>
+        <f t="shared" si="5"/>
         <v>121.50000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(G4:G19)</f>
+        <v>6061</v>
+      </c>
+      <c r="H20" s="8">
+        <f>SUM(H4:H19)</f>
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <f>SUM(H20,-G20)</f>
+        <v>-10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G23" sqref="G4:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,25 +934,127 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6950</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="6">C20-C18</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="7">D20*E20</f>
+        <v>449</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>692</v>
+      </c>
+      <c r="H20" s="8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3460</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="7"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>43929</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="8">C22-C20</f>
+        <v>150</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
+        <v>673.5</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(F22,F23)</f>
+        <v>795</v>
+      </c>
+      <c r="H22" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3510</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="9"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="8">
-        <f>SUM(G4:G19)</f>
-        <v>6061</v>
-      </c>
-      <c r="H20" s="8">
-        <f>SUM(H4:H19)</f>
-        <v>6051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G24" s="8">
+        <f>SUM(G4:G23)</f>
+        <v>7548</v>
+      </c>
+      <c r="H24" s="8">
+        <f>SUM(H4:H23)</f>
+        <v>7538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
-        <f>SUM(H20,-G20)</f>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
+        <f>SUM(H24,-G24)</f>
         <v>-10</v>
       </c>
     </row>

--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G4:G23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
         <v>7100</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="8">C22-C20</f>
+        <f t="shared" ref="D22:D29" si="8">C22-C20</f>
         <v>150</v>
       </c>
       <c r="E22" s="6">
@@ -1036,25 +1036,178 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="9">
+        <v>43955</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="10">D24*E24</f>
+        <v>449</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(F24,F25)</f>
+        <v>692</v>
+      </c>
+      <c r="H24" s="8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3610</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="10"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>43957</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" ref="F26:F27" si="11">D26*E26</f>
+        <v>449</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(F26,F27)</f>
+        <v>692</v>
+      </c>
+      <c r="H26" s="8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3710</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="11"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>43957</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7400</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" ref="F28:F29" si="12">D28*E28</f>
+        <v>449</v>
+      </c>
+      <c r="G28" s="8">
+        <f>SUM(F28,F29)</f>
+        <v>692</v>
+      </c>
+      <c r="H28" s="8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3810</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="12"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="8">
-        <f>SUM(G4:G23)</f>
-        <v>7548</v>
-      </c>
-      <c r="H24" s="8">
-        <f>SUM(H4:H23)</f>
-        <v>7538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G30" s="8">
+        <f>SUM(G4:G27)</f>
+        <v>8932</v>
+      </c>
+      <c r="H30" s="8">
+        <f>SUM(H4:H27)</f>
+        <v>8922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8">
-        <f>SUM(H24,-G24)</f>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
+        <f>SUM(H30,-G30)</f>
         <v>-10</v>
       </c>
     </row>

--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1189,25 +1189,127 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
+      <c r="A30" s="9">
+        <v>44011</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>7550</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="13">C30-C28</f>
+        <v>150</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:F31" si="14">D30*E30</f>
+        <v>673.5</v>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(F30,F31)</f>
+        <v>795</v>
+      </c>
+      <c r="H30" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3860</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="14"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>44011</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7650</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D33" si="15">C32-C30</f>
+        <v>100</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:F33" si="16">D32*E32</f>
+        <v>449</v>
+      </c>
+      <c r="G32" s="8">
+        <f>SUM(F32,F33)</f>
+        <v>692</v>
+      </c>
+      <c r="H32" s="8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3960</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="16"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G34" s="8">
         <f>SUM(G4:G27)</f>
         <v>8932</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H34" s="8">
         <f>SUM(H4:H27)</f>
         <v>8922</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8">
-        <f>SUM(H30,-G30)</f>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
+        <f>SUM(H34,-G34)</f>
         <v>-10</v>
       </c>
     </row>

--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1291,26 +1291,77 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="2" t="s">
+      <c r="A34" s="9">
+        <v>44109</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7800</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:D35" si="17">C34-C32</f>
+        <v>150</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F35" si="18">D34*E34</f>
+        <v>706.5</v>
+      </c>
+      <c r="G34" s="8">
+        <f>SUM(F34,F35)</f>
+        <v>834</v>
+      </c>
+      <c r="H34" s="8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4010</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="18"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="8">
-        <f>SUM(G4:G27)</f>
-        <v>8932</v>
-      </c>
-      <c r="H34" s="8">
-        <f>SUM(H4:H27)</f>
-        <v>8922</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="2" t="s">
+      <c r="G36" s="8">
+        <f>SUM(G4:G35)</f>
+        <v>11945</v>
+      </c>
+      <c r="H36" s="8">
+        <f>SUM(H4:H35)</f>
+        <v>11896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8">
-        <f>SUM(H34,-G34)</f>
-        <v>-10</v>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8">
+        <f>SUM(H36,-G36)</f>
+        <v>-49</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -445,10 +439,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,27 +568,310 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
-        <v>10</v>
+      <c r="A6" s="8">
+        <v>44176</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7900</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>471</v>
       </c>
       <c r="G6" s="7">
-        <f>SUM(G2:G5)</f>
+        <f>SUM(F6,F7)</f>
+        <v>726</v>
+      </c>
+      <c r="H6" s="7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4110</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>44176</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8050</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>150</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>706.5</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(F8,F9)</f>
         <v>834</v>
       </c>
-      <c r="H6" s="7">
-        <f>SUM(H2:H5)</f>
-        <v>795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
-        <f>SUM(H6,-G6)</f>
-        <v>-39</v>
-      </c>
+      <c r="H8" s="7">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4160</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="5"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>44183</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8150</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>471</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM(F10,F11)</f>
+        <v>726</v>
+      </c>
+      <c r="H10" s="7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4260</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>44183</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8350</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>942</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUM(F12,F13)</f>
+        <v>942</v>
+      </c>
+      <c r="H12" s="7">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4260</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>44183</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8550</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>942</v>
+      </c>
+      <c r="G14" s="7">
+        <f>SUM(F14,F15)</f>
+        <v>942</v>
+      </c>
+      <c r="H14" s="7">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4260</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>44183</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8650</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>471</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUM(F16,F17)</f>
+        <v>726</v>
+      </c>
+      <c r="H16" s="7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4360</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="13"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -79,12 +79,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -132,6 +138,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,10 +446,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -487,20 +494,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>44011</v>
+      <c r="A2" s="9">
+        <v>44202</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>7650</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+        <v>8950</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2-C4</f>
+        <v>200</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>942</v>
+      </c>
+      <c r="G2" s="7">
+        <f>SUM(F2,F3)</f>
+        <v>942</v>
+      </c>
+      <c r="H2" s="7">
+        <v>942</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -508,41 +528,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>3960</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>4460</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D19" si="1">C3-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>44109</v>
+        <v>44200</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>7800</v>
+        <v>8750</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
-        <v>150</v>
+        <f>C4-C6</f>
+        <v>100</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>706.5</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>471</v>
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>834</v>
+        <v>726</v>
       </c>
       <c r="H4" s="7">
-        <v>795</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -551,41 +579,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>4010</v>
+        <v>4460</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="E5" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="2"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>7900</v>
+        <v>8650</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <f>C6-C8</f>
         <v>100</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <f t="shared" ref="F6:F19" si="3">D6*E6</f>
         <v>471</v>
       </c>
       <c r="G6" s="7">
@@ -602,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4110</v>
+        <v>4360</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E7" s="5">
@@ -620,31 +648,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>8050</v>
+        <v>8550</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>706.5</v>
+        <f t="shared" si="3"/>
+        <v>942</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>834</v>
+        <v>942</v>
       </c>
       <c r="H8" s="7">
-        <v>873</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -653,18 +681,18 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>4160</v>
+        <v>4260</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="5"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -677,25 +705,25 @@
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>8150</v>
+        <v>8350</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>471</v>
+        <f t="shared" si="3"/>
+        <v>942</v>
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>726</v>
+        <v>942</v>
       </c>
       <c r="H10" s="7">
-        <v>726</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,15 +735,15 @@
         <v>4260</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="7"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -728,25 +756,25 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>8350</v>
+        <v>8150</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
-        <v>942</v>
+        <f t="shared" si="3"/>
+        <v>471</v>
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>942</v>
+        <v>726</v>
       </c>
       <c r="H12" s="7">
-        <v>942</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -758,46 +786,46 @@
         <v>4260</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>44183</v>
+        <v>44176</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>8550</v>
+        <v>8050</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
-        <v>942</v>
+        <f t="shared" si="3"/>
+        <v>706.5</v>
       </c>
       <c r="G14" s="7">
         <f>SUM(F14,F15)</f>
-        <v>942</v>
+        <v>834</v>
       </c>
       <c r="H14" s="7">
-        <v>942</v>
+        <v>873</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -806,41 +834,41 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>4260</v>
+        <v>4160</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>44183</v>
+        <v>44176</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>8650</v>
+        <v>7900</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <f t="shared" si="3"/>
         <v>471</v>
       </c>
       <c r="G16" s="7">
@@ -857,21 +885,102 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>4360</v>
+        <v>4110</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>44109</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>706.5</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(F18,F19)</f>
+        <v>834</v>
+      </c>
+      <c r="H18" s="7">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4010</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="3"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>44011</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7650</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3960</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -88,7 +88,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -139,6 +139,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -493,494 +494,912 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>44202</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>8950</v>
-      </c>
-      <c r="D2" s="3">
-        <f>C2-C4</f>
-        <v>200</v>
-      </c>
-      <c r="E2" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>942</v>
-      </c>
-      <c r="G2" s="7">
-        <f>SUM(F2,F3)</f>
-        <v>942</v>
-      </c>
-      <c r="H2" s="7">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>44295</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>4460</v>
+        <v>10550</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D19" si="1">C3-C5</f>
-        <v>0</v>
+        <f>C3-C5</f>
+        <v>400</v>
       </c>
       <c r="E3" s="5">
-        <v>2.5499999999999998</v>
+        <v>4.71</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+        <f t="shared" ref="F3:F4" si="0">D3*E3</f>
+        <v>1884</v>
+      </c>
+      <c r="G3" s="7">
+        <f>SUM(F3,F4)</f>
+        <v>1884</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1884</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>44200</v>
-      </c>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>8750</v>
+        <v>5060</v>
       </c>
       <c r="D4" s="3">
         <f>C4-C6</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>4.71</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>471</v>
-      </c>
-      <c r="G4" s="7">
-        <f>SUM(F4,F5)</f>
-        <v>726</v>
-      </c>
-      <c r="H4" s="7">
-        <v>726</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="9">
+        <v>44284</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>4460</v>
+        <v>10150</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>C5-C7</f>
+        <v>200</v>
       </c>
       <c r="E5" s="5">
-        <v>2.5499999999999998</v>
+        <v>4.71</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+        <f t="shared" ref="F5:F6" si="1">D5*E5</f>
+        <v>942</v>
+      </c>
+      <c r="G5" s="7">
+        <f>SUM(F5,F6)</f>
+        <v>1452</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1452</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>44183</v>
-      </c>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>8650</v>
+        <v>5060</v>
       </c>
       <c r="D6" s="3">
         <f>C6-C8</f>
+        <v>200</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44266</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9950</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C9</f>
+        <v>200</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F8" si="2">D7*E7</f>
+        <v>942</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUM(F7,F8)</f>
+        <v>942</v>
+      </c>
+      <c r="H7" s="7">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4860</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8" si="3">C8-C10</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>44266</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9750</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-C11</f>
+        <v>200</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9:F10" si="4">D9*E9</f>
+        <v>942</v>
+      </c>
+      <c r="G9" s="7">
+        <f>SUM(F9,F10)</f>
+        <v>1452</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4860</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10" si="5">C10-C12</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="4"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>44253</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9550</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C13</f>
+        <v>200</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11:F12" si="6">D11*E11</f>
+        <v>942</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUM(F11,F12)</f>
+        <v>942</v>
+      </c>
+      <c r="H11" s="7">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4660</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12" si="7">C12-C14</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44253</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9350</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C15</f>
         <v>100</v>
       </c>
-      <c r="E6" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F19" si="3">D6*E6</f>
+      <c r="E13" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" ref="F13:F14" si="8">D13*E13</f>
         <v>471</v>
       </c>
-      <c r="G6" s="7">
-        <f>SUM(F6,F7)</f>
+      <c r="G13" s="7">
+        <f>SUM(F13,F14)</f>
         <v>726</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H13" s="7">
         <v>726</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4360</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="1"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4660</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14" si="9">C14-C16</f>
         <v>100</v>
       </c>
-      <c r="E7" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="3"/>
+      <c r="E14" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="8"/>
         <v>254.99999999999997</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>44183</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>8550</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>44238</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9250</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C17</f>
         <v>200</v>
       </c>
-      <c r="E8" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="3"/>
-        <v>942</v>
-      </c>
-      <c r="G8" s="7">
-        <f>SUM(F8,F9)</f>
-        <v>942</v>
-      </c>
-      <c r="H8" s="7">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4260</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>44183</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8350</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
+      <c r="E15" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F16" si="10">D15*E15</f>
+        <v>942</v>
+      </c>
+      <c r="G15" s="7">
+        <f>SUM(F15,F16)</f>
+        <v>942</v>
+      </c>
+      <c r="H15" s="7">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4560</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16" si="11">C16-C18</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>44238</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9050</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C19</f>
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17:F18" si="12">D17*E17</f>
+        <v>471</v>
+      </c>
+      <c r="G17" s="7">
+        <f>SUM(F17,F18)</f>
+        <v>726</v>
+      </c>
+      <c r="H17" s="7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4560</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18" si="13">C18-C20</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="12"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>44202</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8950</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-C21</f>
         <v>200</v>
       </c>
-      <c r="E10" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="3"/>
-        <v>942</v>
-      </c>
-      <c r="G10" s="7">
-        <f>SUM(F10,F11)</f>
-        <v>942</v>
-      </c>
-      <c r="H10" s="7">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4260</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>44183</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8150</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="3"/>
-        <v>471</v>
-      </c>
-      <c r="G12" s="7">
-        <f>SUM(F12,F13)</f>
-        <v>726</v>
-      </c>
-      <c r="H12" s="7">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4260</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="3"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>44176</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>8050</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="3"/>
-        <v>706.5</v>
-      </c>
-      <c r="G14" s="7">
-        <f>SUM(F14,F15)</f>
-        <v>834</v>
-      </c>
-      <c r="H14" s="7">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4160</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="3"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>44176</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7900</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="3"/>
-        <v>471</v>
-      </c>
-      <c r="G16" s="7">
-        <f>SUM(F16,F17)</f>
-        <v>726</v>
-      </c>
-      <c r="H16" s="7">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4110</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="3"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>44109</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>7800</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="3"/>
-        <v>706.5</v>
-      </c>
-      <c r="G18" s="7">
-        <f>SUM(F18,F19)</f>
-        <v>834</v>
-      </c>
-      <c r="H18" s="7">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4010</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
       <c r="E19" s="5">
-        <v>2.5499999999999998</v>
+        <v>4.71</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="3"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+        <f t="shared" ref="F19:F20" si="14">D19*E19</f>
+        <v>942</v>
+      </c>
+      <c r="G19" s="7">
+        <f>SUM(F19,F20)</f>
+        <v>942</v>
+      </c>
+      <c r="H19" s="7">
+        <v>942</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>44011</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>7650</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+        <v>4460</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D36" si="15">C20-C22</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="8">
+        <v>44200</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3">
+        <v>8750</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21-C23</f>
+        <v>100</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21:F22" si="16">D21*E21</f>
+        <v>471</v>
+      </c>
+      <c r="G21" s="7">
+        <f>SUM(F21,F22)</f>
+        <v>726</v>
+      </c>
+      <c r="H21" s="7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4460</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="16"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>44183</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8650</v>
+      </c>
+      <c r="D23" s="3">
+        <f>C23-C25</f>
+        <v>100</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:F36" si="17">D23*E23</f>
+        <v>471</v>
+      </c>
+      <c r="G23" s="7">
+        <f>SUM(F23,F24)</f>
+        <v>726</v>
+      </c>
+      <c r="H23" s="7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4360</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="17"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>44183</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8550</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="17"/>
+        <v>942</v>
+      </c>
+      <c r="G25" s="7">
+        <f>SUM(F25,F26)</f>
+        <v>942</v>
+      </c>
+      <c r="H25" s="7">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4260</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>44183</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8350</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="17"/>
+        <v>942</v>
+      </c>
+      <c r="G27" s="7">
+        <f>SUM(F27,F28)</f>
+        <v>942</v>
+      </c>
+      <c r="H27" s="7">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4260</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>44183</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>8150</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="17"/>
+        <v>471</v>
+      </c>
+      <c r="G29" s="7">
+        <f>SUM(F29,F30)</f>
+        <v>726</v>
+      </c>
+      <c r="H29" s="7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4260</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="17"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>44176</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8050</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="E31" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="17"/>
+        <v>706.5</v>
+      </c>
+      <c r="G31" s="7">
+        <f>SUM(F31,F32)</f>
+        <v>834</v>
+      </c>
+      <c r="H31" s="7">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4160</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="17"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>44176</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E33" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="17"/>
+        <v>471</v>
+      </c>
+      <c r="G33" s="7">
+        <f>SUM(F33,F34)</f>
+        <v>726</v>
+      </c>
+      <c r="H33" s="7">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4110</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="17"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>44109</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="17"/>
+        <v>706.5</v>
+      </c>
+      <c r="G35" s="7">
+        <f>SUM(F35,F36)</f>
+        <v>834</v>
+      </c>
+      <c r="H35" s="7">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4010</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="17"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>44011</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7650</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
         <v>3960</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -496,31 +496,31 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44327</v>
+        <v>44454</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>10750</v>
+        <v>11350</v>
       </c>
       <c r="D2" s="3">
-        <f>C2-C4</f>
-        <v>100</v>
+        <f t="shared" ref="D2:D12" si="0">C2-C4</f>
+        <v>600</v>
       </c>
       <c r="E2" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>471</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>2976</v>
       </c>
       <c r="G2" s="7">
         <f>SUM(F2,F3)</f>
-        <v>726</v>
+        <v>3512</v>
       </c>
       <c r="H2" s="7">
-        <v>726</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -529,18 +529,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>5260</v>
+        <v>5460</v>
       </c>
       <c r="D3" s="3">
-        <f>C3-C5</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E3" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="1"/>
+        <v>536</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -553,17 +553,17 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10650</v>
+        <v>10750</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C6</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
         <v>471</v>
       </c>
       <c r="G4" s="7">
@@ -580,17 +580,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>5160</v>
+        <v>5260</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C7</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G5" s="7"/>
@@ -598,31 +598,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44295</v>
+        <v>44327</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>10550</v>
+        <v>10650</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C8</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>1884</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>471</v>
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>1884</v>
+        <v>726</v>
       </c>
       <c r="H6" s="7">
-        <v>1884</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,49 +631,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>5060</v>
+        <v>5160</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C9</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E7" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>44284</v>
+        <v>44295</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>10150</v>
+        <v>10550</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C10</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>942</v>
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>1884</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>1452</v>
+        <v>1884</v>
       </c>
       <c r="H8" s="7">
-        <v>1452</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,46 +685,46 @@
         <v>5060</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C11</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="3"/>
-        <v>509.99999999999994</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>44266</v>
+        <v>44284</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>9950</v>
+        <v>10150</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C12</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
         <v>942</v>
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>942</v>
+        <v>1452</v>
       </c>
       <c r="H10" s="7">
-        <v>942</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,18 +733,18 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>4860</v>
+        <v>5060</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11" si="5">C11-C13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E11" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>9750</v>
+        <v>9950</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C14</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E12" s="5">
@@ -772,10 +772,10 @@
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>1452</v>
+        <v>942</v>
       </c>
       <c r="H12" s="7">
-        <v>1452</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -788,27 +788,27 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" ref="D13" si="7">C13-C15</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="6"/>
-        <v>509.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>44253</v>
+        <v>44266</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>9550</v>
+        <v>9750</v>
       </c>
       <c r="D14" s="3">
         <f>C14-C16</f>
@@ -823,10 +823,10 @@
       </c>
       <c r="G14" s="7">
         <f>SUM(F14,F15)</f>
-        <v>942</v>
+        <v>1452</v>
       </c>
       <c r="H14" s="7">
-        <v>942</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,18 +835,18 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>4660</v>
+        <v>4860</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ref="D15" si="9">C15-C17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>9350</v>
+        <v>9550</v>
       </c>
       <c r="D16" s="3">
         <f>C16-C18</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ref="F16:F17" si="10">D16*E16</f>
-        <v>471</v>
+        <v>942</v>
       </c>
       <c r="G16" s="7">
         <f>SUM(F16,F17)</f>
-        <v>726</v>
+        <v>942</v>
       </c>
       <c r="H16" s="7">
-        <v>726</v>
+        <v>942</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -890,65 +890,65 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17" si="11">C17-C19</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="10"/>
-        <v>254.99999999999997</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>44238</v>
+        <v>44253</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>9250</v>
+        <v>9350</v>
       </c>
       <c r="D18" s="3">
         <f>C18-C20</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E18" s="5">
         <v>4.71</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ref="F18:F19" si="12">D18*E18</f>
-        <v>942</v>
+        <v>471</v>
       </c>
       <c r="G18" s="7">
         <f>SUM(F18,F19)</f>
-        <v>942</v>
+        <v>726</v>
       </c>
       <c r="H18" s="7">
-        <v>942</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>4560</v>
+        <v>4660</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ref="D19" si="13">C19-C21</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -961,25 +961,25 @@
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>9050</v>
+        <v>9250</v>
       </c>
       <c r="D20" s="3">
         <f>C20-C22</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="5">
         <v>4.71</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ref="F20:F21" si="14">D20*E20</f>
-        <v>471</v>
+        <v>942</v>
       </c>
       <c r="G20" s="7">
         <f>SUM(F20,F21)</f>
-        <v>726</v>
+        <v>942</v>
       </c>
       <c r="H20" s="7">
-        <v>726</v>
+        <v>942</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -992,45 +992,45 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" ref="D21" si="15">C21-C23</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="14"/>
-        <v>254.99999999999997</v>
+        <v>0</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>44202</v>
+        <v>44238</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>8950</v>
+        <v>9050</v>
       </c>
       <c r="D22" s="3">
         <f>C22-C24</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="5">
         <v>4.71</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F23" si="16">D22*E22</f>
-        <v>942</v>
+        <v>471</v>
       </c>
       <c r="G22" s="7">
         <f>SUM(F22,F23)</f>
-        <v>942</v>
+        <v>726</v>
       </c>
       <c r="H22" s="7">
-        <v>942</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,49 +1039,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>4460</v>
+        <v>4560</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" ref="D23:D39" si="17">C23-C25</f>
-        <v>0</v>
+        <f t="shared" ref="D23" si="17">C23-C25</f>
+        <v>100</v>
       </c>
       <c r="E23" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>44200</v>
+      <c r="A24" s="9">
+        <v>44202</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>8750</v>
+        <v>8950</v>
       </c>
       <c r="D24" s="3">
         <f>C24-C26</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="5">
         <v>4.71</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ref="F24:F25" si="18">D24*E24</f>
-        <v>471</v>
+        <v>942</v>
       </c>
       <c r="G24" s="7">
         <f>SUM(F24,F25)</f>
-        <v>726</v>
+        <v>942</v>
       </c>
       <c r="H24" s="7">
-        <v>726</v>
+        <v>942</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,28 +1093,28 @@
         <v>4460</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="17"/>
-        <v>100</v>
+        <f t="shared" ref="D25:D41" si="19">C25-C27</f>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="18"/>
-        <v>254.99999999999997</v>
+        <v>0</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>44183</v>
+        <v>44200</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>8650</v>
+        <v>8750</v>
       </c>
       <c r="D26" s="3">
         <f>C26-C28</f>
@@ -1124,7 +1124,7 @@
         <v>4.71</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" ref="F26:F39" si="19">D26*E26</f>
+        <f t="shared" ref="F26:F27" si="20">D26*E26</f>
         <v>471</v>
       </c>
       <c r="G26" s="7">
@@ -1141,17 +1141,17 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>4360</v>
+        <v>4460</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="E27" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G27" s="7"/>
@@ -1165,25 +1165,25 @@
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>8550</v>
+        <v>8650</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="17"/>
-        <v>200</v>
+        <f>C28-C30</f>
+        <v>100</v>
       </c>
       <c r="E28" s="5">
         <v>4.71</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="19"/>
-        <v>942</v>
+        <f t="shared" ref="F28:F41" si="21">D28*E28</f>
+        <v>471</v>
       </c>
       <c r="G28" s="7">
         <f>SUM(F28,F29)</f>
-        <v>942</v>
+        <v>726</v>
       </c>
       <c r="H28" s="7">
-        <v>942</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1192,18 +1192,18 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>4260</v>
+        <v>4360</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
       <c r="E29" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -1216,17 +1216,17 @@
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>8350</v>
+        <v>8550</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="E30" s="5">
         <v>4.71</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>942</v>
       </c>
       <c r="G30" s="7">
@@ -1246,14 +1246,14 @@
         <v>4260</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E31" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G31" s="7"/>
@@ -1267,25 +1267,25 @@
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>8150</v>
+        <v>8350</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="17"/>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>200</v>
       </c>
       <c r="E32" s="5">
         <v>4.71</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="19"/>
-        <v>471</v>
+        <f t="shared" si="21"/>
+        <v>942</v>
       </c>
       <c r="G32" s="7">
         <f>SUM(F32,F33)</f>
-        <v>726</v>
+        <v>942</v>
       </c>
       <c r="H32" s="7">
-        <v>726</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,46 +1297,46 @@
         <v>4260</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="17"/>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="E33" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="19"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>8050</v>
+        <v>8150</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="17"/>
-        <v>150</v>
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
       <c r="E34" s="5">
         <v>4.71</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="19"/>
-        <v>706.5</v>
+        <f t="shared" si="21"/>
+        <v>471</v>
       </c>
       <c r="G34" s="7">
         <f>SUM(F34,F35)</f>
-        <v>834</v>
+        <v>726</v>
       </c>
       <c r="H34" s="7">
-        <v>873</v>
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,18 +1345,18 @@
         <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>4160</v>
+        <v>4260</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="17"/>
-        <v>50</v>
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
       <c r="E35" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="19"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="21"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -1369,25 +1369,25 @@
         <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>7900</v>
+        <v>8050</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="17"/>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>150</v>
       </c>
       <c r="E36" s="5">
         <v>4.71</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="19"/>
-        <v>471</v>
+        <f t="shared" si="21"/>
+        <v>706.5</v>
       </c>
       <c r="G36" s="7">
         <f>SUM(F36,F37)</f>
-        <v>726</v>
+        <v>834</v>
       </c>
       <c r="H36" s="7">
-        <v>726</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,49 +1396,49 @@
         <v>1</v>
       </c>
       <c r="C37" s="3">
-        <v>4110</v>
+        <v>4160</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="17"/>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>50</v>
       </c>
       <c r="E37" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="19"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="21"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>44109</v>
+        <v>44176</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="17"/>
-        <v>150</v>
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
       <c r="E38" s="5">
         <v>4.71</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="19"/>
-        <v>706.5</v>
+        <f t="shared" si="21"/>
+        <v>471</v>
       </c>
       <c r="G38" s="7">
         <f>SUM(F38,F39)</f>
-        <v>834</v>
+        <v>726</v>
       </c>
       <c r="H38" s="7">
-        <v>795</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1447,37 +1447,50 @@
         <v>1</v>
       </c>
       <c r="C39" s="3">
-        <v>4010</v>
+        <v>4110</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="17"/>
-        <v>50</v>
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
       <c r="E39" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="19"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="21"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>44011</v>
+        <v>44109</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>7650</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+        <v>7800</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="19"/>
+        <v>150</v>
+      </c>
+      <c r="E40" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="21"/>
+        <v>706.5</v>
+      </c>
+      <c r="G40" s="7">
+        <f>SUM(F40,F41)</f>
+        <v>834</v>
+      </c>
+      <c r="H40" s="7">
+        <v>795</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -1485,13 +1498,51 @@
         <v>1</v>
       </c>
       <c r="C41" s="3">
-        <v>3960</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+        <v>4010</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="21"/>
+        <v>127.49999999999999</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>44011</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>7650</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3960</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/226ee.xlsx
+++ b/sputnik/personal/ee/226ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -79,7 +79,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -140,6 +146,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,7 +454,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -495,32 +502,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>44454</v>
+      <c r="A2" s="11">
+        <v>44546</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>11350</v>
+        <v>11750</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D12" si="0">C2-C4</f>
-        <v>600</v>
+        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
+        <v>100</v>
       </c>
       <c r="E2" s="5">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2976</v>
+        <v>496</v>
       </c>
       <c r="G2" s="7">
         <f>SUM(F2,F3)</f>
-        <v>3512</v>
+        <v>764</v>
       </c>
       <c r="H2" s="7">
-        <v>3512</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -529,49 +536,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>5460</v>
+        <v>5660</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E3" s="5">
         <v>2.68</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="1"/>
-        <v>536</v>
+        <v>268</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44327</v>
+        <v>44544</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10750</v>
+        <v>11650</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
+        <v>300</v>
       </c>
       <c r="E4" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>471</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>1488</v>
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>726</v>
+        <v>1756</v>
       </c>
       <c r="H4" s="7">
-        <v>726</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,49 +587,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>5260</v>
+        <v>5560</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E5" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="3"/>
+        <v>268</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44327</v>
+        <v>44454</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>10650</v>
+        <v>11350</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" ref="D6:D16" si="4">C6-C8</f>
+        <v>600</v>
       </c>
       <c r="E6" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>471</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>2976</v>
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>726</v>
+        <v>3512</v>
       </c>
       <c r="H6" s="7">
-        <v>726</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,49 +638,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>5160</v>
+        <v>5460</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E7" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="3"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="5"/>
+        <v>536</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>44295</v>
+        <v>44327</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>10550</v>
+        <v>10750</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
-        <v>1884</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>471</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>1884</v>
+        <v>726</v>
       </c>
       <c r="H8" s="7">
-        <v>1884</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,49 +689,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>5060</v>
+        <v>5260</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E9" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>44284</v>
+        <v>44327</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>10150</v>
+        <v>10650</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
-        <v>942</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>471</v>
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>1452</v>
+        <v>726</v>
       </c>
       <c r="H10" s="7">
-        <v>1452</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,49 +740,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>5060</v>
+        <v>5160</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E11" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="5"/>
-        <v>509.99999999999994</v>
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>44266</v>
+        <v>44295</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>9950</v>
+        <v>10550</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>400</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
-        <v>942</v>
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>1884</v>
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>942</v>
+        <v>1884</v>
       </c>
       <c r="H12" s="7">
-        <v>942</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,17 +791,17 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>4860</v>
+        <v>5060</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ref="D13" si="7">C13-C15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G13" s="7"/>
@@ -802,23 +809,23 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>44266</v>
+        <v>44284</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>9750</v>
+        <v>10150</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-C16</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
         <v>942</v>
       </c>
       <c r="G14" s="7">
@@ -835,17 +842,17 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>4860</v>
+        <v>5060</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15" si="9">C15-C17</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G15" s="7"/>
@@ -853,16 +860,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>44253</v>
+        <v>44266</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>9550</v>
+        <v>9950</v>
       </c>
       <c r="D16" s="3">
-        <f>C16-C18</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="E16" s="5">
@@ -886,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>4660</v>
+        <v>4860</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17" si="11">C17-C19</f>
@@ -904,31 +911,31 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>44253</v>
+        <v>44266</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>9350</v>
+        <v>9750</v>
       </c>
       <c r="D18" s="3">
         <f>C18-C20</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="5">
         <v>4.71</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ref="F18:F19" si="12">D18*E18</f>
-        <v>471</v>
+        <v>942</v>
       </c>
       <c r="G18" s="7">
         <f>SUM(F18,F19)</f>
-        <v>726</v>
+        <v>1452</v>
       </c>
       <c r="H18" s="7">
-        <v>726</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,31 +944,31 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>4660</v>
+        <v>4860</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ref="D19" si="13">C19-C21</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E19" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="12"/>
-        <v>254.99999999999997</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>44238</v>
+        <v>44253</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>9250</v>
+        <v>9550</v>
       </c>
       <c r="D20" s="3">
         <f>C20-C22</f>
@@ -983,12 +990,12 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>4560</v>
+        <v>4660</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ref="D21" si="15">C21-C23</f>
@@ -1006,13 +1013,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>44238</v>
+        <v>44253</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>9050</v>
+        <v>9350</v>
       </c>
       <c r="D22" s="3">
         <f>C22-C24</f>
@@ -1034,12 +1041,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>4560</v>
+        <v>4660</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ref="D23" si="17">C23-C25</f>
@@ -1057,13 +1064,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>44202</v>
+        <v>44238</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>8950</v>
+        <v>9250</v>
       </c>
       <c r="D24" s="3">
         <f>C24-C26</f>
@@ -1090,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>4460</v>
+        <v>4560</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" ref="D25:D41" si="19">C25-C27</f>
+        <f t="shared" ref="D25" si="19">C25-C27</f>
         <v>0</v>
       </c>
       <c r="E25" s="5">
@@ -1107,14 +1114,14 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>44200</v>
+      <c r="A26" s="9">
+        <v>44238</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>8750</v>
+        <v>9050</v>
       </c>
       <c r="D26" s="3">
         <f>C26-C28</f>
@@ -1141,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>4460</v>
+        <v>4560</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D27" si="21">C27-C29</f>
         <v>100</v>
       </c>
       <c r="E27" s="5">
@@ -1158,32 +1165,32 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>44183</v>
+      <c r="A28" s="9">
+        <v>44202</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>8650</v>
+        <v>8950</v>
       </c>
       <c r="D28" s="3">
         <f>C28-C30</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E28" s="5">
         <v>4.71</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" ref="F28:F41" si="21">D28*E28</f>
-        <v>471</v>
+        <f t="shared" ref="F28:F29" si="22">D28*E28</f>
+        <v>942</v>
       </c>
       <c r="G28" s="7">
         <f>SUM(F28,F29)</f>
-        <v>726</v>
+        <v>942</v>
       </c>
       <c r="H28" s="7">
-        <v>726</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1192,49 +1199,49 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>4360</v>
+        <v>4460</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="19"/>
-        <v>100</v>
+        <f t="shared" ref="D29:D45" si="23">C29-C31</f>
+        <v>0</v>
       </c>
       <c r="E29" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="21"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>44183</v>
+        <v>44200</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>8550</v>
+        <v>8750</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="19"/>
-        <v>200</v>
+        <f>C30-C32</f>
+        <v>100</v>
       </c>
       <c r="E30" s="5">
         <v>4.71</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="21"/>
-        <v>942</v>
+        <f t="shared" ref="F30:F31" si="24">D30*E30</f>
+        <v>471</v>
       </c>
       <c r="G30" s="7">
         <f>SUM(F30,F31)</f>
-        <v>942</v>
+        <v>726</v>
       </c>
       <c r="H30" s="7">
-        <v>942</v>
+        <v>726</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,18 +1250,18 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
       <c r="E31" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -1267,25 +1274,25 @@
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>8350</v>
+        <v>8650</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="19"/>
-        <v>200</v>
+        <f>C32-C34</f>
+        <v>100</v>
       </c>
       <c r="E32" s="5">
         <v>4.71</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="21"/>
-        <v>942</v>
+        <f t="shared" ref="F32:F45" si="25">D32*E32</f>
+        <v>471</v>
       </c>
       <c r="G32" s="7">
         <f>SUM(F32,F33)</f>
-        <v>942</v>
+        <v>726</v>
       </c>
       <c r="H32" s="7">
-        <v>942</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1294,18 +1301,18 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>4260</v>
+        <v>4360</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
       <c r="E33" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -1318,25 +1325,25 @@
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>8150</v>
+        <v>8550</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="19"/>
-        <v>100</v>
+        <f t="shared" si="23"/>
+        <v>200</v>
       </c>
       <c r="E34" s="5">
         <v>4.71</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="21"/>
-        <v>471</v>
+        <f t="shared" si="25"/>
+        <v>942</v>
       </c>
       <c r="G34" s="7">
         <f>SUM(F34,F35)</f>
-        <v>726</v>
+        <v>942</v>
       </c>
       <c r="H34" s="7">
-        <v>726</v>
+        <v>942</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,46 +1355,46 @@
         <v>4260</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="19"/>
-        <v>100</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="E35" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="21"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>8050</v>
+        <v>8350</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="19"/>
-        <v>150</v>
+        <f t="shared" si="23"/>
+        <v>200</v>
       </c>
       <c r="E36" s="5">
         <v>4.71</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="21"/>
-        <v>706.5</v>
+        <f t="shared" si="25"/>
+        <v>942</v>
       </c>
       <c r="G36" s="7">
         <f>SUM(F36,F37)</f>
-        <v>834</v>
+        <v>942</v>
       </c>
       <c r="H36" s="7">
-        <v>873</v>
+        <v>942</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,41 +1403,41 @@
         <v>1</v>
       </c>
       <c r="C37" s="3">
-        <v>4160</v>
+        <v>4260</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="19"/>
-        <v>50</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="E37" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="21"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>7900</v>
+        <v>8150</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="E38" s="5">
         <v>4.71</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>471</v>
       </c>
       <c r="G38" s="7">
@@ -1447,17 +1454,17 @@
         <v>1</v>
       </c>
       <c r="C39" s="3">
-        <v>4110</v>
+        <v>4260</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="E39" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G39" s="7"/>
@@ -1465,23 +1472,23 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>44109</v>
+        <v>44176</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>7800</v>
+        <v>8050</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>150</v>
       </c>
       <c r="E40" s="5">
         <v>4.71</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>706.5</v>
       </c>
       <c r="G40" s="7">
@@ -1489,7 +1496,7 @@
         <v>834</v>
       </c>
       <c r="H40" s="7">
-        <v>795</v>
+        <v>873</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,17 +1505,17 @@
         <v>1</v>
       </c>
       <c r="C41" s="3">
-        <v>4010</v>
+        <v>4160</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
       <c r="E41" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>127.49999999999999</v>
       </c>
       <c r="G41" s="7"/>
@@ -1516,19 +1523,32 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>44011</v>
+        <v>44176</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="3">
-        <v>7650</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+        <v>7900</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="25"/>
+        <v>471</v>
+      </c>
+      <c r="G42" s="7">
+        <f>SUM(F42,F43)</f>
+        <v>726</v>
+      </c>
+      <c r="H42" s="7">
+        <v>726</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -1536,13 +1556,102 @@
         <v>1</v>
       </c>
       <c r="C43" s="3">
-        <v>3960</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+        <v>4110</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="25"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>44109</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>7800</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="23"/>
+        <v>150</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="25"/>
+        <v>706.5</v>
+      </c>
+      <c r="G44" s="7">
+        <f>SUM(F44,F45)</f>
+        <v>834</v>
+      </c>
+      <c r="H44" s="7">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4010</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="25"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44011</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>7650</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3960</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
